--- a/testFiles/hasOne.xlsx
+++ b/testFiles/hasOne.xlsx
@@ -405,7 +405,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
